--- a/resultados/Resultados.xlsx
+++ b/resultados/Resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FabioS\Desktop\2021-22\TI\TP2\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064B28B1-7C29-4CE8-84A4-EAE22030D58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E31CE2-B9CB-4D5E-83ED-AA73D98A814C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="1896" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Métodos de compressão</t>
   </si>
@@ -46,6 +46,27 @@
   </si>
   <si>
     <t>ORIGINAL (kbytes)</t>
+  </si>
+  <si>
+    <t>Huffman</t>
+  </si>
+  <si>
+    <t>LZW</t>
+  </si>
+  <si>
+    <t>PPM</t>
+  </si>
+  <si>
+    <t>decoders: +30kb</t>
+  </si>
+  <si>
+    <t>decoders igual</t>
+  </si>
+  <si>
+    <t>decoders: +9kb</t>
+  </si>
+  <si>
+    <t>bz2 fica diferente</t>
   </si>
 </sst>
 </file>
@@ -117,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -134,7 +155,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -417,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,25 +506,55 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2167</v>
+      </c>
+      <c r="C4" s="5">
+        <v>3703</v>
+      </c>
+      <c r="D4" s="5">
+        <v>180</v>
+      </c>
+      <c r="E4" s="6">
+        <v>74</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>730</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1315</v>
+      </c>
+      <c r="D5" s="5">
+        <v>172</v>
+      </c>
+      <c r="E5" s="5">
+        <v>144</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5">
+        <v>730</v>
+      </c>
+      <c r="C6" s="5">
+        <v>177</v>
+      </c>
+      <c r="D6" s="5">
+        <v>61</v>
+      </c>
+      <c r="E6" s="5">
+        <v>76</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
@@ -530,6 +584,28 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D13" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/resultados/Resultados.xlsx
+++ b/resultados/Resultados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FabioS\Desktop\2021-22\TI\TP2\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E31CE2-B9CB-4D5E-83ED-AA73D98A814C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE3B35A-B60B-4AFE-B18D-0952DE67C10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10812" yWindow="3804" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Métodos de compressão</t>
   </si>
@@ -42,9 +42,6 @@
     <t>random.txt</t>
   </si>
   <si>
-    <t>Bzip2</t>
-  </si>
-  <si>
     <t>ORIGINAL (kbytes)</t>
   </si>
   <si>
@@ -57,23 +54,41 @@
     <t>PPM</t>
   </si>
   <si>
-    <t>decoders: +30kb</t>
-  </si>
-  <si>
-    <t>decoders igual</t>
-  </si>
-  <si>
-    <t>decoders: +9kb</t>
-  </si>
-  <si>
-    <t>bz2 fica diferente</t>
+    <t>MTF</t>
+  </si>
+  <si>
+    <t>RLE</t>
+  </si>
+  <si>
+    <t>BWT</t>
+  </si>
+  <si>
+    <t>BWT + RLE</t>
+  </si>
+  <si>
+    <t>BWT + PPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BWT + PPM + BZIP</t>
+  </si>
+  <si>
+    <t>BWT + Huffman</t>
+  </si>
+  <si>
+    <t>LZW + BZIP</t>
+  </si>
+  <si>
+    <t>BZIP</t>
+  </si>
+  <si>
+    <t>Huffman + BZIP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,16 +103,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +114,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -155,10 +174,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -441,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,7 +498,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4">
         <v>3953</v>
@@ -490,7 +515,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5">
         <v>826</v>
@@ -501,13 +526,13 @@
       <c r="D3" s="5">
         <v>68</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="5">
         <v>2167</v>
@@ -518,16 +543,16 @@
       <c r="D4" s="5">
         <v>180</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5">
-        <v>730</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2284</v>
       </c>
       <c r="C5" s="5">
         <v>1315</v>
@@ -541,15 +566,15 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6">
         <v>730</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="8">
         <v>177</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>61</v>
       </c>
       <c r="E6" s="5">
@@ -557,54 +582,157 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1540</v>
+      </c>
+      <c r="C7" s="5">
+        <v>11428</v>
+      </c>
+      <c r="D7" s="5">
+        <v>565</v>
+      </c>
+      <c r="E7" s="5">
+        <v>196</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7816</v>
+      </c>
+      <c r="C8" s="5">
+        <v>11103</v>
+      </c>
+      <c r="D8" s="5">
+        <v>521</v>
+      </c>
+      <c r="E8" s="5">
+        <v>193</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3983</v>
+      </c>
+      <c r="C9" s="5">
+        <v>5744</v>
+      </c>
+      <c r="D9" s="5">
+        <v>293</v>
+      </c>
+      <c r="E9" s="5">
+        <v>98</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2686</v>
+      </c>
+      <c r="C10" s="5">
+        <v>537</v>
+      </c>
+      <c r="D10" s="5">
+        <v>203</v>
+      </c>
+      <c r="E10" s="5">
+        <v>193</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>11</v>
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1375</v>
+      </c>
+      <c r="C11" s="5">
+        <v>721</v>
+      </c>
+      <c r="D11" s="5">
+        <v>116</v>
+      </c>
+      <c r="E11" s="5">
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="B12" s="5">
+        <v>834</v>
+      </c>
+      <c r="C12" s="6">
+        <v>138</v>
+      </c>
+      <c r="D12" s="5">
+        <v>75</v>
+      </c>
+      <c r="E12" s="5">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D13" s="7"/>
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5">
+        <v>837</v>
+      </c>
+      <c r="C13" s="5">
+        <v>139</v>
+      </c>
+      <c r="D13" s="9">
+        <v>76</v>
+      </c>
+      <c r="E13" s="5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2167</v>
+      </c>
+      <c r="C14" s="5">
+        <v>3703</v>
+      </c>
+      <c r="D14" s="5">
+        <v>180</v>
+      </c>
+      <c r="E14" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1140</v>
+      </c>
+      <c r="C15" s="5">
+        <v>416</v>
+      </c>
+      <c r="D15" s="5">
+        <v>111</v>
+      </c>
+      <c r="E15" s="5">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resultados/Resultados.xlsx
+++ b/resultados/Resultados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FabioS\Desktop\2021-22\TI\TP2\resultados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo22\Desktop\FC\2ºano\1ºsemestre\TI\TI_TP2\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE3B35A-B60B-4AFE-B18D-0952DE67C10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A19BB7C-626D-49A7-A43F-68603389CB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10812" yWindow="3804" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Métodos de compressão</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Huffman + BZIP</t>
+  </si>
+  <si>
+    <t>BWT + LZW</t>
   </si>
 </sst>
 </file>
@@ -157,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -184,6 +187,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -466,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,6 +740,26 @@
         <v>74</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1959</v>
+      </c>
+      <c r="C16" s="1">
+        <v>404</v>
+      </c>
+      <c r="D16" s="1">
+        <v>156</v>
+      </c>
+      <c r="E16" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="10"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/resultados/Resultados.xlsx
+++ b/resultados/Resultados.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eduardo22\Desktop\FC\2ºano\1ºsemestre\TI\TI_TP2\resultados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A19BB7C-626D-49A7-A43F-68603389CB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4A6691-20A8-4BED-B589-9B1128659451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>Métodos de compressão</t>
   </si>
@@ -69,12 +78,6 @@
     <t>BWT + PPM</t>
   </si>
   <si>
-    <t xml:space="preserve"> BWT + PPM + BZIP</t>
-  </si>
-  <si>
-    <t>BWT + Huffman</t>
-  </si>
-  <si>
     <t>LZW + BZIP</t>
   </si>
   <si>
@@ -86,12 +89,15 @@
   <si>
     <t>BWT + LZW</t>
   </si>
+  <si>
+    <t>MEDIA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +107,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -160,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -186,10 +200,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -207,6 +233,2299 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Rácios de compress</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t>ão</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$B$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bible.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Folha1!$A$20:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>BZIP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Huffman</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LZW</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PPM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MTF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RLE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BWT</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BWT + RLE</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>LZW + BZIP</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>BWT + PPM</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Huffman + BZIP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>BWT + LZW</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MEDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$B$20:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>4.7857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8241808952468852</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7307355516637477</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.4150684931506845</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49943145925457993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50575742067553731</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99246798895305044</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4996206373292869</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8749090909090911</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8749090909090911</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.4675438596491226</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0178662582950486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B196-4D69-9A37-FE5A18ECA8E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>finance.csv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Folha1!$A$20:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>BZIP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Huffman</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LZW</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PPM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MTF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RLE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BWT</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BWT + RLE</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>LZW + BZIP</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>BWT + PPM</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Huffman + BZIP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>BWT + LZW</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MEDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$C$20:$C$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>31.048648648648648</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5511747231974076</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.3680608365019014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.451977401129945</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50262513125656283</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51733765648923713</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10.696461824953445</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9667128987517337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.623188405797102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13.807692307692308</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14.217821782178218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B196-4D69-9A37-FE5A18ECA8E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jquery-3.6.0.js</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Folha1!$A$20:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>BZIP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Huffman</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LZW</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PPM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MTF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RLE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BWT</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BWT + RLE</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>LZW + BZIP</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>BWT + PPM</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Huffman + BZIP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>BWT + LZW</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MEDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$D$20:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>4.1470588235294121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6395348837209303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6229508196721314</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.49911504424778763</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5412667946257198</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.96245733788395904</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3891625615763548</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.4310344827586206</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.76</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5405405405405403</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8076923076923077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B196-4D69-9A37-FE5A18ECA8E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>random.txt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Folha1!$A$20:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>BZIP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Huffman</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LZW</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PPM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MTF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RLE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BWT</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BWT + RLE</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>LZW + BZIP</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>BWT + PPM</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Huffman + BZIP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>BWT + LZW</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>MEDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$E$20:$E$33</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="1">
+                  <c:v>1.3243243243243243</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68055555555555558</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2894736842105263</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2894736842105263</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.50777202072538863</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50777202072538863</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1529411764705881</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2894736842105263</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3243243243243243</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68055555555555558</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B196-4D69-9A37-FE5A18ECA8E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1593603040"/>
+        <c:axId val="1593603456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1593603040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593603456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1593603456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1593603040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Mé</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>dia de compressão</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Folha1!$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MEDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Folha1!$A$20:$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="1">
+                  <c:v>BZIP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Huffman</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LZW</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>PPM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MTF</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>RLE</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>BWT</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BWT + RLE</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>LZW + BZIP</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>BWT + PPM</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Huffman + BZIP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>BWT + LZW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Folha1!$F$20:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="1">
+                  <c:v>10.326436520554168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4056444601666287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2569512390242763</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.944867599540823</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.50029290868973253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.51803347312897075</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98873133170925243</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5232542611461186</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.6063994122225083</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.38689279522918</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.285025258051574</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6809839759302827</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FAC5-4478-BE71-B542ED6A29EA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1673115696"/>
+        <c:axId val="1673116112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1673115696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1673116112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1673116112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1673115696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>37147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>39052</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFF46AC2-143A-4129-A392-A8C2D363DFEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>262890</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>122872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>567690</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>149542</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C768E372-8907-4A13-819E-B131C4CDB31C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -472,20 +2791,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.77734375" style="1" customWidth="1"/>
     <col min="2" max="5" width="15.77734375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -502,7 +2822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -519,9 +2839,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5">
         <v>826</v>
@@ -536,7 +2856,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -553,7 +2873,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -570,7 +2890,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -587,12 +2907,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="5">
-        <v>1540</v>
+        <v>7915</v>
       </c>
       <c r="C7" s="5">
         <v>11428</v>
@@ -604,7 +2924,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -621,7 +2941,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -638,12 +2958,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="5">
-        <v>2686</v>
+        <v>2636</v>
       </c>
       <c r="C10" s="5">
         <v>537</v>
@@ -655,9 +2975,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="5">
         <v>1375</v>
@@ -671,8 +2991,9 @@
       <c r="E11" s="5">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
@@ -689,79 +3010,441 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1140</v>
+      </c>
+      <c r="C13" s="5">
+        <v>416</v>
+      </c>
+      <c r="D13" s="5">
+        <v>111</v>
+      </c>
+      <c r="E13" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1959</v>
+      </c>
+      <c r="C14" s="5">
+        <v>404</v>
+      </c>
+      <c r="D14" s="5">
+        <v>156</v>
+      </c>
+      <c r="E14" s="5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="5"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="10">
+        <f>B2/B3</f>
+        <v>4.7857142857142856</v>
+      </c>
+      <c r="C21" s="10">
+        <f>C2/C3</f>
+        <v>31.048648648648648</v>
+      </c>
+      <c r="D21" s="10">
+        <f>D2/D3</f>
+        <v>4.1470588235294121</v>
+      </c>
+      <c r="E21" s="11">
+        <f>E2/E3</f>
+        <v>1.3243243243243243</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" ref="F21:F32" si="0">AVERAGE(B21:E21)</f>
+        <v>10.326436520554168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="10">
+        <f>B2/B4</f>
+        <v>1.8241808952468852</v>
+      </c>
+      <c r="C22" s="10">
+        <f>C2/C4</f>
+        <v>1.5511747231974076</v>
+      </c>
+      <c r="D22" s="10">
+        <f>D2/D4</f>
+        <v>1.5666666666666667</v>
+      </c>
+      <c r="E22" s="12">
+        <f>E2/E5</f>
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="0"/>
+        <v>1.4056444601666287</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="13">
+        <f>B2/B5</f>
+        <v>1.7307355516637477</v>
+      </c>
+      <c r="C23" s="10">
+        <f>C2/C5</f>
+        <v>4.3680608365019014</v>
+      </c>
+      <c r="D23" s="10">
+        <f>D2/D5</f>
+        <v>1.6395348837209303</v>
+      </c>
+      <c r="E23" s="10">
+        <f>E2/E6</f>
+        <v>1.2894736842105263</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="0"/>
+        <v>2.2569512390242763</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="11">
+        <f>B2/B6</f>
+        <v>5.4150684931506845</v>
+      </c>
+      <c r="C24" s="13">
+        <f>C2/C6</f>
+        <v>32.451977401129945</v>
+      </c>
+      <c r="D24" s="11">
+        <f>D2/D6</f>
+        <v>4.6229508196721314</v>
+      </c>
+      <c r="E24" s="10">
+        <f>E2/E6</f>
+        <v>1.2894736842105263</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="0"/>
+        <v>10.944867599540823</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="10">
+        <f>B2/B7</f>
+        <v>0.49943145925457993</v>
+      </c>
+      <c r="C25" s="10">
+        <f>C2/C7</f>
+        <v>0.50262513125656283</v>
+      </c>
+      <c r="D25" s="10">
+        <f>D2/D7</f>
+        <v>0.49911504424778763</v>
+      </c>
+      <c r="E25" s="10">
+        <f>E2/E7</f>
+        <v>0.5</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="0"/>
+        <v>0.50029290868973253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="10">
+        <f>B2/B8</f>
+        <v>0.50575742067553731</v>
+      </c>
+      <c r="C26" s="10">
+        <f>C2/C8</f>
+        <v>0.51733765648923713</v>
+      </c>
+      <c r="D26" s="10">
+        <f>D2/D8</f>
+        <v>0.5412667946257198</v>
+      </c>
+      <c r="E26" s="10">
+        <f>E2/E8</f>
+        <v>0.50777202072538863</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="0"/>
+        <v>0.51803347312897075</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="10">
+        <f>B2/B9</f>
+        <v>0.99246798895305044</v>
+      </c>
+      <c r="C27" s="10">
+        <f>C2/C9</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="10">
+        <f>D2/D9</f>
+        <v>0.96245733788395904</v>
+      </c>
+      <c r="E27" s="10">
+        <f>E2/E9</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="0"/>
+        <v>0.98873133170925243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="10">
+        <f>B2/B10</f>
+        <v>1.4996206373292869</v>
+      </c>
+      <c r="C28" s="10">
+        <f>C2/C10</f>
+        <v>10.696461824953445</v>
+      </c>
+      <c r="D28" s="10">
+        <f>D2/D10</f>
+        <v>1.3891625615763548</v>
+      </c>
+      <c r="E28" s="10">
+        <f>E2/E10</f>
+        <v>0.50777202072538863</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="0"/>
+        <v>3.5232542611461186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5">
-        <v>837</v>
-      </c>
-      <c r="C13" s="5">
-        <v>139</v>
-      </c>
-      <c r="D13" s="9">
-        <v>76</v>
-      </c>
-      <c r="E13" s="5">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="5">
-        <v>2167</v>
-      </c>
-      <c r="C14" s="5">
-        <v>3703</v>
-      </c>
-      <c r="D14" s="5">
-        <v>180</v>
-      </c>
-      <c r="E14" s="6">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="B29" s="10">
+        <f>B2/B11</f>
+        <v>2.8749090909090911</v>
+      </c>
+      <c r="C29" s="10">
+        <f>C2/C11</f>
+        <v>7.9667128987517337</v>
+      </c>
+      <c r="D29" s="10">
+        <f>D2/D11</f>
+        <v>2.4310344827586206</v>
+      </c>
+      <c r="E29" s="10">
+        <f>E2/E11</f>
+        <v>1.1529411764705881</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="0"/>
+        <v>3.6063994122225083</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="10">
+        <f>B2/B11</f>
+        <v>2.8749090909090911</v>
+      </c>
+      <c r="C30" s="11">
+        <f>C2/C12</f>
+        <v>41.623188405797102</v>
+      </c>
+      <c r="D30" s="10">
+        <f>D2/D12</f>
+        <v>3.76</v>
+      </c>
+      <c r="E30" s="10">
+        <f>E2/E12</f>
+        <v>1.2894736842105263</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="0"/>
+        <v>12.38689279522918</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="10">
+        <f>B2/B13</f>
+        <v>3.4675438596491226</v>
+      </c>
+      <c r="C31" s="10">
+        <f>C2/C13</f>
+        <v>13.807692307692308</v>
+      </c>
+      <c r="D31" s="10">
+        <f>D2/D13</f>
+        <v>2.5405405405405403</v>
+      </c>
+      <c r="E31" s="10">
+        <f>E2/E13</f>
+        <v>1.3243243243243243</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="0"/>
+        <v>5.285025258051574</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="10">
+        <f>B2/B14</f>
+        <v>2.0178662582950486</v>
+      </c>
+      <c r="C32" s="10">
+        <f>C2/C14</f>
+        <v>14.217821782178218</v>
+      </c>
+      <c r="D32" s="10">
+        <f>D2/D14</f>
+        <v>1.8076923076923077</v>
+      </c>
+      <c r="E32" s="10">
+        <f>E2/E14</f>
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="0"/>
+        <v>4.6809839759302827</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="5">
-        <v>1140</v>
-      </c>
-      <c r="C15" s="5">
-        <v>416</v>
-      </c>
-      <c r="D15" s="5">
-        <v>111</v>
-      </c>
-      <c r="E15" s="5">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1959</v>
-      </c>
-      <c r="C16" s="1">
-        <v>404</v>
-      </c>
-      <c r="D16" s="1">
-        <v>156</v>
-      </c>
-      <c r="E16" s="1">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D20" s="10"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>